--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_37.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3432143.87257314</v>
+        <v>3539373.313971228</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12502432.03437992</v>
+        <v>12383593.4843585</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7824686.055604453</v>
+        <v>7838134.500984096</v>
       </c>
     </row>
     <row r="11">
@@ -656,25 +658,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>205.0598450145695</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>110.2445386555249</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -826,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,22 +867,22 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>15.37599160421563</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2271541212006</v>
+        <v>62.30414838069041</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +898,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>327.8305606778345</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>290.8263485681719</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +989,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,16 +1022,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T6" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U6" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1054,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>266.0532942182555</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>81.32250238801431</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1136,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>279.849813699945</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>149.3745911998652</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1224,13 +1226,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>134.9994691657081</v>
+        <v>135.3343964518635</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>20.22295923705013</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,16 +1259,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414547</v>
+        <v>134.3646350838588</v>
       </c>
       <c r="T9" t="n">
-        <v>190.7165703189231</v>
+        <v>192.0665623188214</v>
       </c>
       <c r="U9" t="n">
-        <v>225.7871683969286</v>
+        <v>225.8092030868072</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1303,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,25 +1338,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>165.6576474972174</v>
+        <v>146.390190460447</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1418,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1497,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1525,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1534,19 +1536,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>18.7084378797731</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1588,7 +1590,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>179.2445652598078</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -1610,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1622,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444138</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695534</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881266</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1701,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1734,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364134</v>
+        <v>117.0286782364135</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>59.96838802184498</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856556</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012171</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1819,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>159.2661870898826</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1850,7 +1852,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2011,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>133.3133845470783</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2020,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2062,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>195.5593521176183</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2078,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2242,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2293,10 +2295,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>82.52140782073276</v>
       </c>
       <c r="V22" t="n">
-        <v>32.05158559392713</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2318,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2482,19 +2484,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>241.3492586655846</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>240.06330988836</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2555,7 +2557,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2710,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>106.1798850986046</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2719,16 +2721,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -2758,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>51.36569740310382</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2855,10 +2857,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2950,7 +2952,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>69.15817284271252</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,25 +3000,25 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>174.7683347992595</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3032,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3187,7 +3189,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -3199,7 +3201,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
@@ -3235,7 +3237,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3244,10 +3246,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>140.7215037338436</v>
       </c>
       <c r="W34" t="n">
-        <v>40.32853379926716</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3266,7 +3268,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3320,7 +3322,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3421,13 +3423,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>27.34574348918596</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -3439,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>81.26583631856553</v>
@@ -3475,10 +3477,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>73.23997380652447</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3515,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187868</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3566,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3664,16 +3666,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>102.1557845699813</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>140.575894358866</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3715,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3737,7 +3739,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3788,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3913,7 +3915,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -3943,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>25.73194049497363</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,10 +3954,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>66.09841665934233</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4135,10 +4137,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>57.82449082152367</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4150,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4186,22 +4188,22 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>154.2390706773477</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1336.407536033268</v>
+        <v>1586.913505738324</v>
       </c>
       <c r="C2" t="n">
-        <v>1336.407536033268</v>
+        <v>1217.950988797912</v>
       </c>
       <c r="D2" t="n">
-        <v>978.1418374265172</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E2" t="n">
-        <v>978.1418374265172</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F2" t="n">
-        <v>771.0106808461439</v>
+        <v>62.91113280331017</v>
       </c>
       <c r="G2" t="n">
-        <v>355.3059305704328</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
@@ -4355,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2562.339328400155</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2353.59368700598</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U2" t="n">
-        <v>2100.012626270159</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V2" t="n">
-        <v>2100.012626270159</v>
+        <v>2326.28200107256</v>
       </c>
       <c r="W2" t="n">
-        <v>2100.012626270159</v>
+        <v>1973.513345802446</v>
       </c>
       <c r="X2" t="n">
-        <v>1726.546868009079</v>
+        <v>1973.513345802446</v>
       </c>
       <c r="Y2" t="n">
-        <v>1336.407536033268</v>
+        <v>1973.513345802446</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966384</v>
+        <v>931.3041410966389</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155114</v>
+        <v>756.8511118155119</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542601</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488045</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756896</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G3" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182521</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057906</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500113</v>
@@ -4419,10 +4421,10 @@
         <v>956.284402521753</v>
       </c>
       <c r="N3" t="n">
-        <v>1343.569531118698</v>
+        <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1977.748514897737</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4440,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087193</v>
+        <v>1515.131277087194</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>792.8801184070676</v>
+        <v>517.189556406156</v>
       </c>
       <c r="C4" t="n">
-        <v>623.9439354791607</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D4" t="n">
-        <v>473.8272960668249</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E4" t="n">
-        <v>473.8272960668249</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>473.8272960668249</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G4" t="n">
-        <v>305.8408313751036</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H4" t="n">
-        <v>157.1019332386098</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4513,25 +4515,25 @@
         <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1518.331408939356</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="T4" t="n">
-        <v>1518.331408939356</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="U4" t="n">
-        <v>1229.213071443194</v>
+        <v>1470.929230377261</v>
       </c>
       <c r="V4" t="n">
-        <v>974.5285832373073</v>
+        <v>1216.244742171374</v>
       </c>
       <c r="W4" t="n">
-        <v>974.5285832373073</v>
+        <v>926.8275721344131</v>
       </c>
       <c r="X4" t="n">
-        <v>974.5285832373073</v>
+        <v>698.8380212363958</v>
       </c>
       <c r="Y4" t="n">
-        <v>974.5285832373073</v>
+        <v>698.8380212363958</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1976.204921733553</v>
+        <v>1466.396332783113</v>
       </c>
       <c r="C5" t="n">
-        <v>1976.204921733553</v>
+        <v>1097.433815842702</v>
       </c>
       <c r="D5" t="n">
-        <v>1617.939223126803</v>
+        <v>1097.433815842702</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1097.433815842702</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>686.447911053094</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>355.3059305704328</v>
       </c>
       <c r="H5" t="n">
-        <v>108.5090151927147</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520488</v>
+        <v>2184.059060190806</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520488</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="W5" t="n">
-        <v>2656.568750250374</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="X5" t="n">
-        <v>2656.568750250374</v>
+        <v>1852.996172847235</v>
       </c>
       <c r="Y5" t="n">
-        <v>2362.804761797675</v>
+        <v>1852.996172847235</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>593.0223835625329</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>970.4000522258378</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1357.685180822783</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>608.7574741064773</v>
+        <v>517.189556406156</v>
       </c>
       <c r="C7" t="n">
-        <v>608.7574741064773</v>
+        <v>348.2533734782492</v>
       </c>
       <c r="D7" t="n">
-        <v>458.6408346941415</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E7" t="n">
-        <v>310.7277411117484</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="G7" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693234</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096587</v>
       </c>
       <c r="N7" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S7" t="n">
-        <v>1837.464090846021</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T7" t="n">
-        <v>1615.697475415547</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="U7" t="n">
-        <v>1346.956774184986</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="V7" t="n">
-        <v>1346.956774184986</v>
+        <v>1048.115628253779</v>
       </c>
       <c r="W7" t="n">
-        <v>1057.539604148025</v>
+        <v>965.9716864477035</v>
       </c>
       <c r="X7" t="n">
-        <v>829.5500532500074</v>
+        <v>737.9821355496862</v>
       </c>
       <c r="Y7" t="n">
-        <v>608.7574741064773</v>
+        <v>517.189556406156</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2212.771568013855</v>
+        <v>993.7429799877386</v>
       </c>
       <c r="C8" t="n">
-        <v>1843.809051073444</v>
+        <v>624.780463047327</v>
       </c>
       <c r="D8" t="n">
-        <v>1485.543352466693</v>
+        <v>624.780463047327</v>
       </c>
       <c r="E8" t="n">
-        <v>1099.755099868449</v>
+        <v>624.780463047327</v>
       </c>
       <c r="F8" t="n">
-        <v>688.7691950788414</v>
+        <v>213.7945582577194</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>202.1302120224124</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>442.5171852816081</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W8" t="n">
-        <v>2972.837166339057</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="X8" t="n">
-        <v>2599.371408077977</v>
+        <v>1380.34282005186</v>
       </c>
       <c r="Y8" t="n">
-        <v>2599.371408077977</v>
+        <v>1380.34282005186</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>160.189385922801</v>
+        <v>158.9044387371544</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031481</v>
+        <v>343.6260600182043</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>638.329617049676</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1659.79372942566</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>679.1346335501037</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="C10" t="n">
-        <v>679.1346335501037</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="D10" t="n">
-        <v>529.0179941377679</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E10" t="n">
-        <v>381.1049005553748</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F10" t="n">
-        <v>234.2149530574645</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764914</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581905</v>
+        <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1413.467639269233</v>
       </c>
       <c r="U10" t="n">
-        <v>1356.675339798491</v>
+        <v>1124.34930177307</v>
       </c>
       <c r="V10" t="n">
-        <v>1189.344382730594</v>
+        <v>976.4804225200937</v>
       </c>
       <c r="W10" t="n">
-        <v>899.9272126936338</v>
+        <v>976.4804225200937</v>
       </c>
       <c r="X10" t="n">
-        <v>899.9272126936338</v>
+        <v>748.4908716220764</v>
       </c>
       <c r="Y10" t="n">
-        <v>679.1346335501037</v>
+        <v>527.6982924785463</v>
       </c>
     </row>
     <row r="11">
@@ -5021,7 +5023,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5036,40 +5038,40 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192591</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5103,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803938</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516144</v>
+        <v>577.3880777468469</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962605</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793925</v>
+        <v>2297.690135143763</v>
       </c>
       <c r="O12" t="n">
-        <v>2223.769289033212</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400717</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121648</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998291</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E13" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F13" t="n">
-        <v>175.9033664000582</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>175.9033664000582</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797741</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1252.64624922477</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138415</v>
+        <v>1024.656698326753</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703114</v>
+        <v>803.8641191832229</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,37 +5266,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192586</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5303,22 +5305,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K15" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L15" t="n">
-        <v>740.5562989961525</v>
+        <v>589.1422692637303</v>
       </c>
       <c r="M15" t="n">
-        <v>1337.934786622704</v>
+        <v>913.2907898187007</v>
       </c>
       <c r="N15" t="n">
-        <v>1965.532750177311</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>931.4710609784064</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5348780504995</v>
       </c>
       <c r="D16" t="n">
-        <v>545.3854261579752</v>
+        <v>612.4182386381638</v>
       </c>
       <c r="E16" t="n">
-        <v>484.8112968429803</v>
+        <v>464.5051450557706</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578603</v>
       </c>
       <c r="H16" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038341</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487566</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510507</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.77659230462</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
@@ -5510,28 +5512,28 @@
         <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852254</v>
@@ -5546,19 +5548,19 @@
         <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5598,22 +5600,22 @@
         <v>245.2306927803937</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>542.9134462654469</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N18" t="n">
-        <v>1965.532750177311</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O18" t="n">
-        <v>1965.532750177311</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="C19" t="n">
-        <v>847.644273983533</v>
+        <v>917.5010142286973</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711973</v>
+        <v>767.3843748163615</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888042</v>
+        <v>619.4712812339684</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797186</v>
@@ -5710,13 +5712,13 @@
         <v>1616.556199993915</v>
       </c>
       <c r="W19" t="n">
-        <v>1419.02150088521</v>
+        <v>1327.139029956954</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>1099.149479058937</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>1099.149479058937</v>
       </c>
     </row>
     <row r="20">
@@ -5741,61 +5743,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="21">
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="L21" t="n">
-        <v>590.9096564684977</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>1188.28814409505</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1815.886107649656</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O21" t="n">
-        <v>2367.795837888943</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2367.795837888943</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>3200.825397924057</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C22" t="n">
-        <v>3031.88921499615</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D22" t="n">
-        <v>2881.772575583814</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E22" t="n">
-        <v>2733.859482001421</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F22" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G22" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.9326143059</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328841</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673039</v>
+        <v>1894.106123115829</v>
       </c>
       <c r="V22" t="n">
-        <v>3899.880583689274</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W22" t="n">
-        <v>3610.463413652314</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X22" t="n">
-        <v>3382.473862754297</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y22" t="n">
-        <v>3382.473862754297</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="23">
@@ -5966,40 +5968,40 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362693</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,28 +6010,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>2383.002557118213</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>2716.927329289434</v>
+        <v>244.2098454714574</v>
       </c>
       <c r="L24" t="n">
-        <v>2716.927329289434</v>
+        <v>739.5354516872161</v>
       </c>
       <c r="M24" t="n">
-        <v>3314.305816915985</v>
+        <v>1336.913939313768</v>
       </c>
       <c r="N24" t="n">
-        <v>3941.903780470592</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O24" t="n">
-        <v>4267.210002903525</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P24" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q24" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>3052.912304341663</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C25" t="n">
-        <v>2883.976121413757</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D25" t="n">
-        <v>2733.859482001421</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E25" t="n">
-        <v>2733.859482001421</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F25" t="n">
-        <v>2586.969534503511</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4690.833152398593</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>4471.231687421535</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>4227.444557456298</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>3972.760069250411</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>3683.34289921345</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X25" t="n">
-        <v>3455.353348315433</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y25" t="n">
-        <v>3234.560769171903</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="26">
@@ -6215,13 +6217,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
         <v>378.1925803111717</v>
@@ -6230,13 +6232,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,28 +6302,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>739.5354516872161</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M27" t="n">
-        <v>1336.913939313768</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N27" t="n">
-        <v>1964.511902868375</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
         <v>2516.421633107662</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3175.341129796739</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C28" t="n">
-        <v>3006.404946868832</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D28" t="n">
-        <v>2856.288307456496</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E28" t="n">
-        <v>2708.375213874103</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F28" t="n">
-        <v>2561.485266376193</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G28" t="n">
-        <v>2561.485266376193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H28" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4638.948609567175</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4638.948609567175</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>4638.948609567175</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>4349.873382911373</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>4095.188894705487</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>3805.771724668526</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>3577.782173770509</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>3356.989594626978</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="29">
@@ -6458,10 +6460,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6503,7 +6505,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6537,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L30" t="n">
-        <v>590.9096564684977</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M30" t="n">
-        <v>913.2907898187001</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N30" t="n">
-        <v>1540.888753373307</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>2092.798483612594</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>917.5010142286973</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>917.5010142286973</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>767.3843748163615</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>619.4712812339684</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>472.581333736058</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>305.385234450938</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>163.673403293136</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2203.383708318259</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1983.7822433412</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>1099.149479058937</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
         <v>378.1925803111715</v>
@@ -6704,16 +6706,16 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6780,25 +6782,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>119.290296770379</v>
       </c>
       <c r="L33" t="n">
-        <v>589.1422692637306</v>
+        <v>119.290296770379</v>
       </c>
       <c r="M33" t="n">
-        <v>1186.520756890282</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>762.5348780504994</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C34" t="n">
-        <v>762.5348780504994</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D34" t="n">
-        <v>612.4182386381636</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E34" t="n">
-        <v>464.5051450557705</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F34" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
         <v>317.6151975578602</v>
@@ -6883,25 +6885,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1871.240688199802</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W34" t="n">
-        <v>1392.965472922287</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X34" t="n">
-        <v>1164.975922024269</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y34" t="n">
-        <v>944.1833428807391</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="35">
@@ -6932,22 +6934,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6971,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7014,28 +7016,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803937</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>739.5354516872161</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.913939313768</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N36" t="n">
-        <v>1964.511902868375</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3192.420589669523</v>
+        <v>3200.825397924057</v>
       </c>
       <c r="C37" t="n">
-        <v>3023.484406741616</v>
+        <v>3031.88921499615</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>2881.772575583814</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>2733.859482001421</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>2586.969534503511</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>2419.773435218391</v>
       </c>
       <c r="H37" t="n">
         <v>2419.773435218391</v>
@@ -7123,22 +7125,22 @@
         <v>4440.9326143059</v>
       </c>
       <c r="T37" t="n">
-        <v>4440.9326143059</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="U37" t="n">
-        <v>4366.952842784158</v>
+        <v>4221.331149328841</v>
       </c>
       <c r="V37" t="n">
-        <v>4112.268354578271</v>
+        <v>3966.646661122954</v>
       </c>
       <c r="W37" t="n">
-        <v>3822.85118454131</v>
+        <v>3677.229491085994</v>
       </c>
       <c r="X37" t="n">
-        <v>3594.861633643293</v>
+        <v>3449.239940187977</v>
       </c>
       <c r="Y37" t="n">
-        <v>3374.069054499763</v>
+        <v>3228.447361044447</v>
       </c>
     </row>
     <row r="38">
@@ -7169,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7214,7 +7216,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7254,25 +7256,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>869.9745311434712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>701.0383482155643</v>
       </c>
       <c r="D40" t="n">
-        <v>241.729756630365</v>
+        <v>550.9217088032285</v>
       </c>
       <c r="E40" t="n">
-        <v>93.81666304797187</v>
+        <v>403.0086152208354</v>
       </c>
       <c r="F40" t="n">
-        <v>93.81666304797187</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G40" t="n">
         <v>93.81666304797187</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1789.822296052219</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1500.405126015258</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>1272.415575117241</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>1051.622995973711</v>
       </c>
     </row>
     <row r="41">
@@ -7406,16 +7408,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
         <v>2206.558663014779</v>
@@ -7451,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684977</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M42" t="n">
-        <v>949.9304447718133</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N42" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>956.9553291057244</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>788.0191461778176</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>637.9025067654818</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
         <v>175.9033664000583</v>
@@ -7591,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2420.971224494428</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2238.116390149333</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="U43" t="n">
-        <v>1910.695003076829</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V43" t="n">
-        <v>1656.010514870942</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1366.593344833982</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1138.603793935964</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>1138.603793935964</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7628,28 +7630,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7663,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7728,25 +7730,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>454.6048385560546</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>949.9304447718133</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>949.9304447718133</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>988.1395539230172</v>
+        <v>806.8386896933887</v>
       </c>
       <c r="C46" t="n">
-        <v>929.7309773356195</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="D46" t="n">
-        <v>779.6143379232838</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E46" t="n">
-        <v>631.7012443408906</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7834,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1907.987318831765</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1618.570148794804</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1390.580597896787</v>
+        <v>988.4871545236284</v>
       </c>
       <c r="Y46" t="n">
-        <v>1169.788018753257</v>
+        <v>988.4871545236284</v>
       </c>
     </row>
   </sheetData>
@@ -8067,13 +8069,13 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>211.0329012241564</v>
       </c>
       <c r="O3" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>224.3355197601771</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -8289,7 +8291,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -8301,22 +8303,22 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>14.25823202432809</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>305.1601501039158</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8526,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>45.76488231024548</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8538,7 +8540,7 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>273.6534998179982</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8550,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.9377812015499</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8702,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>4.092726157978177e-12</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -9182,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>-8.526512829121202e-13</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -23413,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,16 +23424,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>127.7255247667961</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23476,7 +23478,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>107.2784330767832</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23650,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>86.46557462472418</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23707,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>127.2568112467084</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23899,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>12.10766347585295</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23950,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>90.96364621897271</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24130,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24181,10 +24183,10 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>203.6630665685114</v>
       </c>
       <c r="V22" t="n">
-        <v>220.0860577299009</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24370,19 +24372,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>44.83521572365953</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>46.45968844823096</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>73.65209508333265</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24607,16 +24609,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24646,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>15.00954930701787</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,7 +24840,7 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>12.10766347585302</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,25 +24888,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>6.257951202385129</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25087,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25123,7 +25125,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25132,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>111.4161395899844</v>
       </c>
       <c r="W34" t="n">
-        <v>246.1944645373239</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,13 +25311,13 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>152.4862366927513</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25327,7 +25329,7 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -25363,10 +25365,10 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>212.9445005827197</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,16 +25554,16 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>46.45968844823102</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>4.845153664065208</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -25594,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25603,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25801,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25831,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>40.64330621514806</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25840,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>220.0860577299018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26023,10 +26025,10 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>109.4223302771042</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26038,7 +26040,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26074,22 +26076,22 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>71.47058471168947</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>691809.1007194667</v>
+        <v>691809.1007194668</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>684678.7877181817</v>
+        <v>691809.1007194667</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>684678.7877181817</v>
+        <v>691809.1007194667</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>673215.2723244028</v>
+        <v>673215.272324403</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>673215.272324403</v>
+        <v>673215.2723244029</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>673215.272324403</v>
+        <v>673215.2723244028</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>673215.272324403</v>
+        <v>673215.2723244028</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>673215.2723244029</v>
+        <v>673215.272324403</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>673215.2723244029</v>
+        <v>673215.272324403</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>673215.2723244028</v>
+        <v>673215.2723244029</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>673215.2723244028</v>
+        <v>673215.272324403</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>673215.272324403</v>
+        <v>673215.2723244028</v>
       </c>
     </row>
   </sheetData>
@@ -26311,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244626</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244623</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244624</v>
+        <v>759463.6371244625</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="F2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="F2" t="n">
-        <v>746610.6047132551</v>
-      </c>
       <c r="G2" t="n">
-        <v>746610.6047132555</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="H2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="I2" t="n">
+        <v>746610.6047132557</v>
+      </c>
+      <c r="J2" t="n">
         <v>746610.6047132554</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132555</v>
       </c>
       <c r="K2" t="n">
         <v>746610.6047132552</v>
@@ -26344,16 +26346,16 @@
         <v>746610.6047132553</v>
       </c>
       <c r="M2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="N2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="O2" t="n">
         <v>746610.6047132554</v>
       </c>
-      <c r="N2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="O2" t="n">
-        <v>746610.6047132552</v>
-      </c>
       <c r="P2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26366,19 +26368,19 @@
         <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>203438.7416121061</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073553</v>
+        <v>507485.4416245456</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.535601535986644e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099825</v>
+        <v>167605.1778099826</v>
       </c>
       <c r="K3" t="n">
-        <v>49110.09270605451</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551178</v>
+        <v>132607.2937289268</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,22 +26420,22 @@
         <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
-        <v>87304.34719808324</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="D4" t="n">
-        <v>87304.34719808324</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732073</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732067</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426732025</v>
+        <v>8117.312426731992</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732029</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
@@ -26442,10 +26444,10 @@
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
-        <v>8117.312426731973</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731973</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="M4" t="n">
         <v>8117.312426731974</v>
@@ -26470,10 +26472,10 @@
         <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
-        <v>107933.9405613933</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-582543.9191531655</v>
+        <v>-582543.9191531653</v>
       </c>
       <c r="C6" t="n">
-        <v>360786.6077528797</v>
+        <v>532207.8644227542</v>
       </c>
       <c r="D6" t="n">
-        <v>564225.3493649859</v>
+        <v>532207.8644227542</v>
       </c>
       <c r="E6" t="n">
-        <v>311958.3006552608</v>
+        <v>129885.3208380706</v>
       </c>
       <c r="F6" t="n">
         <v>637370.7624626162</v>
       </c>
       <c r="G6" t="n">
-        <v>637370.7624626164</v>
+        <v>637370.762462616</v>
       </c>
       <c r="H6" t="n">
-        <v>637370.7624626163</v>
+        <v>637370.7624626161</v>
       </c>
       <c r="I6" t="n">
-        <v>637370.7624626164</v>
+        <v>637370.7624626167</v>
       </c>
       <c r="J6" t="n">
-        <v>469765.5846526339</v>
+        <v>469765.5846526338</v>
       </c>
       <c r="K6" t="n">
-        <v>588260.6697565616</v>
+        <v>637370.7624626162</v>
       </c>
       <c r="L6" t="n">
         <v>637370.7624626163</v>
       </c>
       <c r="M6" t="n">
-        <v>552315.7345271047</v>
+        <v>504763.4687336892</v>
       </c>
       <c r="N6" t="n">
+        <v>637370.7624626163</v>
+      </c>
+      <c r="O6" t="n">
         <v>637370.7624626164</v>
       </c>
-      <c r="O6" t="n">
-        <v>637370.7624626162</v>
-      </c>
       <c r="P6" t="n">
-        <v>637370.7624626164</v>
+        <v>637370.7624626163</v>
       </c>
     </row>
   </sheetData>
@@ -26692,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26738,16 +26740,16 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593298</v>
+        <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341674</v>
+        <v>1367.975500341673</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26789,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
-      <c r="C4" t="n">
-        <v>831.4014554022928</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
-      </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26960,19 +26962,19 @@
         <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>155.7118084757592</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>433.9106082241341</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27255,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
-        <v>190.816623302254</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>201.8162007271419</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>217.50771981461</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27546,16 +27548,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,22 +27587,22 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>179.2864687575218</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>223.9230057405102</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27618,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>83.71714209511947</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,22 +27669,22 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>95.41159008788173</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27776,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,19 +27824,19 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>20.15854398735735</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>205.2004959485767</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27856,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>131.0719119535084</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>151.6439613625402</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28023,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,25 +28058,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>86.47999582661058</v>
+        <v>105.747452863381</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28381,7 +28383,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>2.046363078989089e-12</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28570,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>8.360392837795219e-13</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28798,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -31276,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T5" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R6" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q7" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953988</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>592.572645076738</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>659.3512441730004</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>632.6811099166595</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>85.56785418745098</v>
       </c>
       <c r="T8" t="n">
-        <v>19.1778794245112</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502566</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798531</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>69.17367361436494</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353157</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905541</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1542136840462215</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.684379313654579</v>
       </c>
       <c r="H10" t="n">
-        <v>17.47215759311879</v>
+        <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>50.65387972335771</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702024</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316432</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802169</v>
+        <v>203.7180217169137</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.556281789588</v>
+        <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.09187523529024985</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422584</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862118</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>164.9290651940701</v>
       </c>
       <c r="P12" t="n">
-        <v>193.964997009853</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.5996128485289</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31913,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135338</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817573</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162558</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175671</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159422</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460025</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236505</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.873223366922</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043724</v>
       </c>
       <c r="S14" t="n">
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078744</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,46 +32068,46 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.942437868659448</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521099</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.883274947307</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>469.5567819573419</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071782</v>
       </c>
       <c r="O15" t="n">
-        <v>500.4415752611932</v>
+        <v>700.0808204437241</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869272</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106787</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417313</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32318,7 +32320,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>439.2440297647763</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,16 +32329,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P18" t="n">
-        <v>454.8099857531869</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32546,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
         <v>126.8376266666667</v>
@@ -32564,13 +32566,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P21" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.118592441407</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32783,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>289.7537444526272</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32801,16 +32803,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>471.1883883160942</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,19 +33022,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>637.8521160493917</v>
+        <v>393.3904345522228</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,10 +33043,10 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
@@ -33257,22 +33259,22 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>467.7715423565662</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>453.7122424932254</v>
       </c>
       <c r="O30" t="n">
         <v>700.0808204437243</v>
@@ -33281,10 +33283,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33442,7 +33444,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S32" t="n">
         <v>125.31755462929</v>
@@ -33500,10 +33502,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>163.5723821283055</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>188.4731159523455</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33523,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33734,19 +33736,19 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>379.5002789321571</v>
       </c>
       <c r="O36" t="n">
         <v>700.0808204437243</v>
@@ -33755,10 +33757,10 @@
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33974,10 +33976,10 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>453.4978307576758</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33988,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>225.4828684302377</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
@@ -34214,10 +34216,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>504.7812948344583</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
@@ -34229,10 +34231,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34387,7 +34389,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34448,13 +34450,13 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>351.1157147121651</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34787,13 +34789,13 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>602.2300008170303</v>
       </c>
       <c r="O3" t="n">
-        <v>640.5848321000387</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>474.0150488837094</v>
+        <v>568.1422977634694</v>
       </c>
       <c r="Q3" t="n">
         <v>116.4807223308545</v>
@@ -34933,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>62.98022089091742</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>381.1895643063686</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35091,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>356.8062301067508</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>429.0050109457277</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>402.5828984949727</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>20.29166330939904</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>108.7451032011629</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609567</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859624</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>25.72643735870594</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701981</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934838</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675401</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451104</v>
+        <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>54.88175545805403</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243198</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678994</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>22.33282074962563</v>
       </c>
       <c r="P12" t="n">
-        <v>59.99058959552271</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625074</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317199</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367768</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462685</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902944</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193513</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243157</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683809</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924725</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902403</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674328</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>327.4227480353236</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238449</v>
       </c>
       <c r="O15" t="n">
-        <v>357.8453308167487</v>
+        <v>557.4845759992796</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789205</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.0464832629533</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35902,7 +35904,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35966,7 +35968,7 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>300.6896499849021</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,16 +35977,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P18" t="n">
-        <v>320.8355783388566</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36194,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -36212,13 +36214,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>187.1368183553855</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36431,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>151.9123054782682</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36449,16 +36451,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>328.5921438716498</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,19 +36670,19 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>499.2977362695175</v>
+        <v>254.8360547723487</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,10 +36691,10 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
         <v>37.00975247789211</v>
@@ -36905,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>325.6375084345479</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>322.3705304098921</v>
       </c>
       <c r="O30" t="n">
         <v>557.4845759992799</v>
@@ -36929,10 +36931,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37090,7 +37092,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,10 +37150,10 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>25.73094315394657</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>45.87687150790109</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37171,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37382,19 +37384,19 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>248.1585668488238</v>
       </c>
       <c r="O36" t="n">
         <v>557.4845759992799</v>
@@ -37403,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37622,10 +37624,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>314.9434509778017</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37636,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>82.88662398579324</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37786,7 +37788,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
         <v>751.8584478193516</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -37862,10 +37864,10 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>362.64726091244</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
@@ -37877,10 +37879,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38035,7 +38037,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38096,13 +38098,13 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>213.2742757378061</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3539373.313971228</v>
+        <v>3535236.156721076</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7838134.500984096</v>
+        <v>7838134.500984095</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,10 +673,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>278.5238702603267</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -712,13 +712,13 @@
         <v>123.4522153987944</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>110.2445386555249</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -819,22 +819,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>18.36797920751827</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>62.30414838069041</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>327.8305606778345</v>
+        <v>187.5175205517484</v>
       </c>
       <c r="H5" t="n">
         <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,16 +1053,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>52.34471198851168</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,22 +1101,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>81.32250238801431</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>197.6836481114866</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H8" t="n">
-        <v>149.3745911998652</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1201,7 +1201,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1293,16 +1293,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>90.69811547110051</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>146.390190460447</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1499,7 +1499,7 @@
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T12" t="n">
         <v>188.3046392154443</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>87.21471514853036</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856556</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,10 +1590,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>179.2445652598078</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1624,7 +1624,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444138</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695534</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881266</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128547</v>
+        <v>83.81768903128545</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>117.0286782364135</v>
+        <v>117.0286782364134</v>
       </c>
       <c r="T15" t="n">
         <v>188.3046392154443</v>
@@ -1770,22 +1770,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856556</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012171</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1821,13 +1821,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W16" t="n">
-        <v>159.2661870898826</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1852,13 +1852,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>133.3133845470783</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>93.40444476188321</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2070,7 +2070,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2247,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>93.40444476188321</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>82.52140782073276</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701355</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2538,7 +2538,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>240.06330988836</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>106.1798850986046</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
@@ -2721,7 +2721,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -2730,10 +2730,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>105.6507867899574</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2857,7 +2857,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
         <v>386.2379386560536</v>
@@ -2955,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>174.7683347992595</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3201,13 +3201,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,22 +3234,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>94.30373791808249</v>
       </c>
       <c r="V34" t="n">
-        <v>140.7215037338436</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>27.34574348918596</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3480,7 +3480,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3669,10 +3669,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>140.575894358866</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>0.8253826161911274</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,13 +3790,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>25.73194049497363</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>146.185049953102</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4143,19 +4143,19 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>154.2390706773477</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1586.913505738324</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="C2" t="n">
-        <v>1217.950988797912</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="D2" t="n">
-        <v>859.685290191162</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>1159.27468432052</v>
       </c>
       <c r="F2" t="n">
-        <v>62.91113280331017</v>
+        <v>748.288779530913</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800311</v>
+        <v>332.5840292552018</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
         <v>187.5281822362817</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>2437.640120926626</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="V2" t="n">
-        <v>2326.28200107256</v>
+        <v>1897.831592188879</v>
       </c>
       <c r="W2" t="n">
-        <v>1973.513345802446</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="X2" t="n">
-        <v>1973.513345802446</v>
+        <v>1545.062936918765</v>
       </c>
       <c r="Y2" t="n">
-        <v>1973.513345802446</v>
+        <v>1545.062936918765</v>
       </c>
     </row>
     <row r="3">
@@ -4385,46 +4385,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966389</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155119</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182521</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057906</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
         <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>298.3188265310613</v>
+        <v>507.2413987429755</v>
       </c>
       <c r="L3" t="n">
-        <v>593.0223835625329</v>
+        <v>801.9449557744472</v>
       </c>
       <c r="M3" t="n">
-        <v>956.284402521753</v>
+        <v>1165.206974733667</v>
       </c>
       <c r="N3" t="n">
         <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506775</v>
+        <v>1884.562538506774</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4442,16 +4442,16 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
         <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087194</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
         <v>1099.519478116707</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>517.189556406156</v>
+        <v>682.7064461033923</v>
       </c>
       <c r="C4" t="n">
-        <v>348.2533734782492</v>
+        <v>682.7064461033923</v>
       </c>
       <c r="D4" t="n">
-        <v>198.1367340659135</v>
+        <v>532.5898066910565</v>
       </c>
       <c r="E4" t="n">
-        <v>198.1367340659135</v>
+        <v>384.6767131086634</v>
       </c>
       <c r="F4" t="n">
-        <v>51.24678656800311</v>
+        <v>237.7867656107531</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800311</v>
+        <v>69.80030091903166</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
         <v>248.4064713020475</v>
@@ -4512,28 +4512,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T4" t="n">
-        <v>1533.862713590079</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U4" t="n">
-        <v>1470.929230377261</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V4" t="n">
-        <v>1216.244742171374</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W4" t="n">
-        <v>926.8275721344131</v>
+        <v>1092.344461831649</v>
       </c>
       <c r="X4" t="n">
-        <v>698.8380212363958</v>
+        <v>864.354910933632</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.8380212363958</v>
+        <v>864.354910933632</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1466.396332783113</v>
+        <v>1380.34282005186</v>
       </c>
       <c r="C5" t="n">
-        <v>1097.433815842702</v>
+        <v>1380.34282005186</v>
       </c>
       <c r="D5" t="n">
-        <v>1097.433815842702</v>
+        <v>1022.07712144511</v>
       </c>
       <c r="E5" t="n">
-        <v>1097.433815842702</v>
+        <v>1022.07712144511</v>
       </c>
       <c r="F5" t="n">
-        <v>686.447911053094</v>
+        <v>611.0912166555024</v>
       </c>
       <c r="G5" t="n">
-        <v>355.3059305704328</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H5" t="n">
-        <v>51.24678656800311</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
         <v>187.5281822362817</v>
@@ -4594,25 +4594,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926626</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="U5" t="n">
-        <v>2184.059060190806</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="V5" t="n">
-        <v>1852.996172847235</v>
+        <v>2106.577233583054</v>
       </c>
       <c r="W5" t="n">
-        <v>1852.996172847235</v>
+        <v>1753.80857831294</v>
       </c>
       <c r="X5" t="n">
-        <v>1852.996172847235</v>
+        <v>1380.34282005186</v>
       </c>
       <c r="Y5" t="n">
-        <v>1852.996172847235</v>
+        <v>1380.34282005186</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>113.5972052500114</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>298.3188265310613</v>
+        <v>590.2049751143495</v>
       </c>
       <c r="L6" t="n">
-        <v>593.0223835625329</v>
+        <v>884.9085321458213</v>
       </c>
       <c r="M6" t="n">
-        <v>970.4000522258378</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N6" t="n">
-        <v>1357.685180822783</v>
+        <v>1635.455679701987</v>
       </c>
       <c r="O6" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P6" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q6" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>517.189556406156</v>
+        <v>716.5983551657494</v>
       </c>
       <c r="C7" t="n">
-        <v>348.2533734782492</v>
+        <v>547.6621722378425</v>
       </c>
       <c r="D7" t="n">
-        <v>198.1367340659135</v>
+        <v>547.6621722378425</v>
       </c>
       <c r="E7" t="n">
-        <v>198.1367340659135</v>
+        <v>399.7490786554494</v>
       </c>
       <c r="F7" t="n">
-        <v>51.24678656800311</v>
+        <v>252.859131157539</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800311</v>
+        <v>252.859131157539</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800311</v>
+        <v>104.1202330210452</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800311</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312199</v>
+        <v>76.71595955312198</v>
       </c>
       <c r="K7" t="n">
         <v>248.4064713020475</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693234</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096587</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4749,28 +4749,28 @@
         <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1533.86271359008</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T7" t="n">
-        <v>1337.233965749941</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U7" t="n">
-        <v>1048.115628253779</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V7" t="n">
-        <v>1048.115628253779</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W7" t="n">
-        <v>965.9716864477035</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X7" t="n">
-        <v>737.9821355496862</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y7" t="n">
-        <v>517.189556406156</v>
+        <v>898.2468199959891</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>993.7429799877386</v>
+        <v>1059.365742829027</v>
       </c>
       <c r="C8" t="n">
-        <v>624.780463047327</v>
+        <v>859.685290191162</v>
       </c>
       <c r="D8" t="n">
-        <v>624.780463047327</v>
+        <v>859.685290191162</v>
       </c>
       <c r="E8" t="n">
-        <v>624.780463047327</v>
+        <v>473.8970375929177</v>
       </c>
       <c r="F8" t="n">
-        <v>213.7945582577194</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>202.1302120224124</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H8" t="n">
         <v>51.2467865680031</v>
@@ -4831,25 +4831,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="V8" t="n">
-        <v>2106.577233583054</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="W8" t="n">
-        <v>1753.80857831294</v>
+        <v>2209.570673130041</v>
       </c>
       <c r="X8" t="n">
-        <v>1380.34282005186</v>
+        <v>1836.104914868961</v>
       </c>
       <c r="Y8" t="n">
-        <v>1380.34282005186</v>
+        <v>1445.965582893149</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>158.9044387371544</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>343.6260600182043</v>
+        <v>423.148951518066</v>
       </c>
       <c r="L9" t="n">
-        <v>638.329617049676</v>
+        <v>717.8525085495378</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.79372942566</v>
+        <v>1715.293511287796</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>2047.363946463958</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2294.546680296255</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>346.0498276483066</v>
+        <v>461.9138669598624</v>
       </c>
       <c r="C10" t="n">
-        <v>346.0498276483066</v>
+        <v>292.9776840319555</v>
       </c>
       <c r="D10" t="n">
-        <v>346.0498276483066</v>
+        <v>142.8610446196198</v>
       </c>
       <c r="E10" t="n">
-        <v>198.1367340659135</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F10" t="n">
         <v>51.2467865680031</v>
@@ -4992,22 +4992,22 @@
         <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1413.467639269233</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1124.34930177307</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>976.4804225200937</v>
+        <v>1381.76163186861</v>
       </c>
       <c r="W10" t="n">
-        <v>976.4804225200937</v>
+        <v>1092.34446183165</v>
       </c>
       <c r="X10" t="n">
-        <v>748.4908716220764</v>
+        <v>864.3549109336323</v>
       </c>
       <c r="Y10" t="n">
-        <v>527.6982924785463</v>
+        <v>643.5623317901021</v>
       </c>
     </row>
     <row r="11">
@@ -5023,7 +5023,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5038,10 +5038,10 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192591</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075802</v>
@@ -5050,13 +5050,13 @@
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694709</v>
@@ -5065,10 +5065,10 @@
         <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5117,28 +5117,28 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273908</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756265</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468469</v>
+        <v>579.1554649516145</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962605</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589157</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143763</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>803.8641191832229</v>
+        <v>741.8431516380895</v>
       </c>
       <c r="C13" t="n">
-        <v>634.927936255316</v>
+        <v>572.9069687101826</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578603</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1252.64624922477</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>1024.656698326753</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y13" t="n">
-        <v>803.8641191832229</v>
+        <v>923.4916164683292</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,52 +5266,52 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192586</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123003</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
-        <v>589.1422692637303</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M15" t="n">
-        <v>913.2907898187007</v>
+        <v>1176.533952578166</v>
       </c>
       <c r="N15" t="n">
-        <v>1540.888753373307</v>
+        <v>1804.131916132773</v>
       </c>
       <c r="O15" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
         <v>2516.421633107662</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>931.4710609784064</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>762.5348780504995</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D16" t="n">
-        <v>612.4182386381638</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E16" t="n">
-        <v>464.5051450557706</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>317.6151975578603</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578603</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782956</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487566</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U16" t="n">
-        <v>1977.461080510507</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V16" t="n">
-        <v>1722.77659230462</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1561.901655850193</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1333.912104952176</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1113.119525808646</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L18" t="n">
-        <v>542.9134462654469</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M18" t="n">
-        <v>1140.291933891999</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1767.889897446606</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>917.5010142286973</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C19" t="n">
-        <v>917.5010142286973</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D19" t="n">
-        <v>767.3843748163615</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E19" t="n">
-        <v>619.4712812339684</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429802</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y19" t="n">
-        <v>1099.149479058937</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="20">
@@ -5746,58 +5746,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
         <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5825,28 +5825,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>719.5738700011939</v>
+        <v>580.8993044876693</v>
       </c>
       <c r="C22" t="n">
-        <v>550.637687073287</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="D22" t="n">
-        <v>550.637687073287</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908938</v>
+        <v>411.9631215597624</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1894.106123115829</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1639.421634909942</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1350.004464872981</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>1122.014913974964</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y22" t="n">
-        <v>901.2223348314336</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362693</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J23" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332388</v>
@@ -6004,10 +6004,10 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852256</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>244.2098454714574</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L24" t="n">
-        <v>739.5354516872161</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1336.913939313768</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1964.511902868375</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.7825789706076</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8463960427007</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D25" t="n">
-        <v>241.729756630365</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E25" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F25" t="n">
-        <v>93.81666304797186</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797186</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6217,37 +6217,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>809.0422355233313</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C28" t="n">
-        <v>640.1060525954244</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D28" t="n">
-        <v>489.9894131830887</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E28" t="n">
-        <v>489.9894131830887</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F28" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G28" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y28" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,22 +6451,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192588</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6475,34 +6475,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
         <v>3094.515198591809</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L30" t="n">
-        <v>427.7414352191925</v>
+        <v>740.5562989961526</v>
       </c>
       <c r="M30" t="n">
-        <v>1025.119922845744</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N30" t="n">
-        <v>1344.266747951538</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O30" t="n">
-        <v>1896.176478190825</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="P30" t="n">
-        <v>2319.799627685893</v>
+        <v>2389.15589967238</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2203.383708318259</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1983.7822433412</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1983.7822433412</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1729.097755135313</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6715,37 +6715,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>119.290296770379</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="L33" t="n">
-        <v>119.290296770379</v>
+        <v>352.5519571452613</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1098.667160263527</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356195</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>240.7066105458823</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1871.240688199802</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V34" t="n">
-        <v>1729.097755135313</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W34" t="n">
-        <v>1729.097755135313</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X34" t="n">
-        <v>1501.108204237296</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y34" t="n">
-        <v>1280.315625093766</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="35">
@@ -6934,31 +6934,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,28 +7013,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1767.889897446606</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3200.825397924057</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>3031.88921499615</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>2881.772575583814</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>2733.859482001421</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>2586.969534503511</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
-        <v>2419.773435218391</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>4221.331149328841</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>3966.646661122954</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>3677.229491085994</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>3449.239940187977</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>3228.447361044447</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7216,7 +7216,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,28 +7250,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>869.9745311434712</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C40" t="n">
-        <v>701.0383482155643</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D40" t="n">
-        <v>550.9217088032285</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E40" t="n">
-        <v>403.0086152208354</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F40" t="n">
         <v>261.0127623330919</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.129363765926</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2263.274529420831</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2043.673064443772</v>
       </c>
       <c r="U40" t="n">
-        <v>2044.506784258106</v>
+        <v>1754.597837787969</v>
       </c>
       <c r="V40" t="n">
-        <v>1789.822296052219</v>
+        <v>1499.913349582082</v>
       </c>
       <c r="W40" t="n">
-        <v>1500.405126015258</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X40" t="n">
-        <v>1272.415575117241</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y40" t="n">
-        <v>1051.622995973711</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="41">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
@@ -7408,25 +7408,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7453,7 +7453,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2420.971224494428</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2238.116390149333</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>2018.514925172274</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U43" t="n">
-        <v>2018.514925172274</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V43" t="n">
-        <v>2018.514925172274</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W43" t="n">
-        <v>1729.097755135313</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>806.8386896933887</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654818</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>988.4871545236284</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>988.4871545236284</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>211.0329012241559</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8069,7 +8069,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>211.0329012241564</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -8294,22 +8294,22 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>168.7434581780641</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>14.25823202432809</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>305.1601501039158</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8531,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>45.76488231024548</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8540,10 +8540,10 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>273.6534998179982</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>249.3877325071649</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>129.4330134067482</v>
       </c>
       <c r="R9" t="n">
-        <v>20.9377812015499</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>4.092726157978177e-12</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -9184,7 +9184,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>-8.526512829121202e-13</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>61.400757869682</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23478,10 +23478,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>107.2784330767832</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23658,22 +23658,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23709,13 +23709,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W16" t="n">
-        <v>127.2568112467084</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23892,19 +23892,19 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>12.10766347585295</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>203.6630665685114</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24369,22 +24369,22 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24426,7 +24426,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>46.45968844823096</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>73.65209508333265</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24609,7 +24609,7 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>180.5336875992868</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>6.257951202385129</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,19 +25125,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>191.8807364711616</v>
       </c>
       <c r="V34" t="n">
-        <v>111.4161395899844</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>152.4862366927513</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25368,7 +25368,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25557,10 +25557,10 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>4.845153664065208</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>65.54986409393054</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>40.64330621514806</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>71.22040037418631</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26031,19 +26031,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>71.47058471168947</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>691809.1007194668</v>
+        <v>691809.1007194667</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>673215.272324403</v>
+        <v>673215.2723244029</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>673215.2723244029</v>
+        <v>673215.2723244028</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>673215.2723244028</v>
+        <v>673215.2723244029</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>673215.2723244028</v>
+        <v>673215.272324403</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>673215.272324403</v>
+        <v>673215.2723244028</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>673215.272324403</v>
+        <v>673215.2723244028</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>673215.2723244029</v>
+        <v>673215.2723244028</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>673215.2723244029</v>
+        <v>673215.2723244028</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>673215.272324403</v>
+        <v>673215.2723244029</v>
       </c>
     </row>
     <row r="16">
@@ -26325,22 +26325,22 @@
         <v>746610.6047132553</v>
       </c>
       <c r="F2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="H2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="I2" t="n">
+        <v>746610.6047132555</v>
+      </c>
+      <c r="J2" t="n">
         <v>746610.6047132552</v>
       </c>
-      <c r="G2" t="n">
-        <v>746610.6047132554</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132552</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132557</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132554</v>
-      </c>
       <c r="K2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132553</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132553</v>
@@ -26349,13 +26349,13 @@
         <v>746610.6047132551</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132552</v>
+        <v>746610.6047132551</v>
       </c>
       <c r="O2" t="n">
+        <v>746610.6047132553</v>
+      </c>
+      <c r="P2" t="n">
         <v>746610.6047132554</v>
-      </c>
-      <c r="P2" t="n">
-        <v>746610.6047132553</v>
       </c>
     </row>
     <row r="3">
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245456</v>
+        <v>507485.4416245462</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.535601535986644e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099825</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>132607.2937289268</v>
+        <v>132607.2937289267</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26420,22 +26420,22 @@
         <v>134318.0002618638</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618637</v>
+        <v>134318.0002618638</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618638</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426732073</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426732067</v>
+        <v>8117.312426731934</v>
       </c>
       <c r="G4" t="n">
-        <v>8117.312426731992</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="H4" t="n">
-        <v>8117.312426732029</v>
+        <v>8117.312426731974</v>
       </c>
       <c r="I4" t="n">
         <v>8117.312426731974</v>
@@ -26447,7 +26447,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="L4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="M4" t="n">
         <v>8117.312426731974</v>
@@ -26530,40 +26530,40 @@
         <v>532207.8644227542</v>
       </c>
       <c r="E6" t="n">
-        <v>129885.3208380706</v>
+        <v>129537.941583713</v>
       </c>
       <c r="F6" t="n">
-        <v>637370.7624626162</v>
+        <v>637023.3832082595</v>
       </c>
       <c r="G6" t="n">
-        <v>637370.762462616</v>
+        <v>637023.3832082595</v>
       </c>
       <c r="H6" t="n">
-        <v>637370.7624626161</v>
+        <v>637023.3832082596</v>
       </c>
       <c r="I6" t="n">
-        <v>637370.7624626167</v>
+        <v>637023.3832082595</v>
       </c>
       <c r="J6" t="n">
-        <v>469765.5846526338</v>
+        <v>469418.2053982767</v>
       </c>
       <c r="K6" t="n">
-        <v>637370.7624626162</v>
+        <v>637023.3832082592</v>
       </c>
       <c r="L6" t="n">
-        <v>637370.7624626163</v>
+        <v>637023.3832082592</v>
       </c>
       <c r="M6" t="n">
-        <v>504763.4687336892</v>
+        <v>504416.0894793324</v>
       </c>
       <c r="N6" t="n">
-        <v>637370.7624626163</v>
+        <v>637023.3832082591</v>
       </c>
       <c r="O6" t="n">
-        <v>637370.7624626164</v>
+        <v>637023.3832082594</v>
       </c>
       <c r="P6" t="n">
-        <v>637370.7624626163</v>
+        <v>637023.3832082595</v>
       </c>
     </row>
   </sheetData>
@@ -26694,19 +26694,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26746,10 +26746,10 @@
         <v>934.0648921175392</v>
       </c>
       <c r="E3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="F3" t="n">
-        <v>1367.975500341673</v>
+        <v>1367.975500341674</v>
       </c>
       <c r="G3" t="n">
         <v>1367.975500341674</v>
@@ -26789,10 +26789,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
@@ -26801,25 +26801,25 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26968,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241341</v>
+        <v>433.910608224135</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.584832100039</v>
+        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>3.218023548783847e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,10 +27393,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>22.49468230207867</v>
       </c>
       <c r="I2" t="n">
         <v>65.70991267247049</v>
@@ -27432,13 +27432,13 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>217.50771981461</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27539,22 +27539,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551289</v>
+        <v>128.8835299476106</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
         <v>194.6624603617375</v>
@@ -27593,7 +27593,7 @@
         <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
-        <v>223.9230057405102</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27630,13 +27630,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>83.71714209511947</v>
+        <v>224.0301822212056</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27672,16 +27672,16 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,16 +27773,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>104.7965952039006</v>
+        <v>52.4518832153889</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,22 +27821,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
         <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>205.2004959485767</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>167.5892436595209</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>151.6439613625402</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
         <v>65.70991267247049</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -27912,7 +27912,7 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27921,7 +27921,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28013,16 +28013,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>55.73584717546866</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28064,16 +28064,16 @@
         <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>105.747452863381</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28377,13 +28377,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.046363078989089e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28572,7 +28572,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>8.360392837795219e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -28800,7 +28800,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420754</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422584</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L12" t="n">
-        <v>638.883274947307</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862118</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>164.9290651940701</v>
+        <v>398.7616643558009</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485289</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742437</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348432</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135338</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067231</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663281</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817573</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162558</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175671</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159422</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460025</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236505</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.873223366922</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043724</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651527</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078744</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659448</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521099</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.883274947307</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>469.5567819573419</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071782</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437241</v>
+        <v>198.560797075695</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214697</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>182.689256441856</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742437</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937733</v>
+        <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,46 +32150,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869272</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355177</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588152</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392044</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106787</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920056</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417313</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532765</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L18" t="n">
-        <v>439.2440297647763</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,34 +32542,34 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>461.1007071927452</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
         <v>139.9817740860215</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,31 +32779,31 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>289.7537444526272</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,16 +32812,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>393.3904345522228</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>453.7122424932254</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>268.5330199802459</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>163.5723821283055</v>
+        <v>246.2467565146292</v>
       </c>
       <c r="L33" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>379.5002789321571</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.451622204372</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>225.4828684302377</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543355</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>186.5874962434848</v>
+        <v>397.6203974676407</v>
       </c>
       <c r="L3" t="n">
         <v>297.6803606378501</v>
@@ -34789,7 +34789,7 @@
         <v>366.9313322820404</v>
       </c>
       <c r="N3" t="n">
-        <v>602.2300008170303</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
         <v>335.424681996123</v>
@@ -35014,22 +35014,22 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>62.98022089091742</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434848</v>
+        <v>355.3309544215489</v>
       </c>
       <c r="L6" t="n">
         <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
-        <v>381.1895643063686</v>
+        <v>366.9313322820405</v>
       </c>
       <c r="N6" t="n">
         <v>391.1970995928739</v>
       </c>
       <c r="O6" t="n">
-        <v>640.5848321000389</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P6" t="n">
         <v>249.6795291235323</v>
@@ -35038,7 +35038,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>108.7451032011629</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
         <v>186.5874962434848</v>
@@ -35260,10 +35260,10 @@
         <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
+        <v>366.9313322820405</v>
+      </c>
+      <c r="N9" t="n">
         <v>640.5848321000387</v>
-      </c>
-      <c r="N9" t="n">
-        <v>391.1970995928739</v>
       </c>
       <c r="O9" t="n">
         <v>335.424681996123</v>
@@ -35272,10 +35272,10 @@
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667037</v>
+        <v>245.9137357376028</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977092</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396418</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462685</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902944</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193513</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243198</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924725</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754087</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678994</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674328</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641936</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>22.33282074962563</v>
+        <v>256.1654199113564</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625074</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317199</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396418</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367768</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462685</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902944</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193513</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243157</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683809</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924725</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902403</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674328</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>327.4227480353236</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238449</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992796</v>
+        <v>55.96455263125056</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071394</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789205</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.0464832629533</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998983</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924719</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="L18" t="n">
-        <v>300.6896499849021</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,28 +36196,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>318.5044627483008</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>151.9123054782682</v>
+        <v>35.9785935799765</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>254.8360547723487</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>322.3705304098921</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>128.5512458942243</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,13 +37144,13 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>25.73094315394657</v>
+        <v>108.4053175402702</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -37159,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>248.1585668488238</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,31 +37618,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>82.88662398579324</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>35.97859357997653</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_37.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_12_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3535236.156721076</v>
+        <v>3536996.68702386</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283183</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -673,13 +673,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>411.547702772954</v>
+        <v>241.6278186973306</v>
       </c>
       <c r="H2" t="n">
-        <v>278.5238702603267</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -834,10 +834,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>18.36797920751827</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>18.45751817231747</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -901,22 +901,22 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>129.5901004079848</v>
       </c>
       <c r="G5" t="n">
-        <v>187.5175205517484</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H5" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -995,7 +995,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I6" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705011</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -1071,10 +1071,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>147.2515091551288</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>52.34471198851168</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>50.98074812542853</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>197.6836481114866</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>208.8990535094721</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1195,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705013</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1299,10 +1299,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>90.69811547110051</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1350,10 +1350,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>232.7071512581192</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206839</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1533,13 +1533,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>87.21471514853036</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,19 +1584,19 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>278.7019488598318</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695619</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>107.7122866515516</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>93.40444476188321</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>108.9065924712593</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2244,22 +2244,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>93.40444476188321</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2727,13 +2727,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>51.36569740310337</v>
       </c>
       <c r="U28" t="n">
-        <v>105.6507867899574</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2806,7 +2806,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576153</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>134.5665975534137</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3079,13 +3079,13 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U32" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>174.1401868743384</v>
       </c>
       <c r="U34" t="n">
-        <v>94.30373791808249</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3669,7 +3669,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -3678,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.8253826161911274</v>
+        <v>0.2811815126418742</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3799,7 +3799,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W41" t="n">
         <v>349.240968717413</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>26.13627195705828</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>146.185049953102</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4137,7 +4137,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1545.062936918765</v>
+        <v>1158.463096854644</v>
       </c>
       <c r="C2" t="n">
-        <v>1545.062936918765</v>
+        <v>1158.463096854644</v>
       </c>
       <c r="D2" t="n">
-        <v>1545.062936918765</v>
+        <v>1158.463096854644</v>
       </c>
       <c r="E2" t="n">
-        <v>1159.27468432052</v>
+        <v>772.6748442563996</v>
       </c>
       <c r="F2" t="n">
-        <v>748.288779530913</v>
+        <v>361.6889394667921</v>
       </c>
       <c r="G2" t="n">
-        <v>332.5840292552018</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H2" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L2" t="n">
-        <v>795.7553530872913</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
@@ -4357,25 +4357,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926625</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U2" t="n">
-        <v>2228.89447953245</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="V2" t="n">
-        <v>1897.831592188879</v>
+        <v>1897.83159218888</v>
       </c>
       <c r="W2" t="n">
-        <v>1545.062936918765</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="X2" t="n">
-        <v>1545.062936918765</v>
+        <v>1545.062936918766</v>
       </c>
       <c r="Y2" t="n">
-        <v>1545.062936918765</v>
+        <v>1545.062936918766</v>
       </c>
     </row>
     <row r="3">
@@ -4403,19 +4403,19 @@
         <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I3" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500113</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K3" t="n">
-        <v>507.2413987429755</v>
+        <v>507.2413987429757</v>
       </c>
       <c r="L3" t="n">
-        <v>801.9449557744472</v>
+        <v>801.9449557744474</v>
       </c>
       <c r="M3" t="n">
         <v>1165.206974733667</v>
@@ -4424,7 +4424,7 @@
         <v>1552.492103330613</v>
       </c>
       <c r="O3" t="n">
-        <v>1884.562538506774</v>
+        <v>1884.562538506775</v>
       </c>
       <c r="P3" t="n">
         <v>2447.023413292609</v>
@@ -4464,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>682.7064461033923</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="C4" t="n">
-        <v>682.7064461033923</v>
+        <v>918.7469765594642</v>
       </c>
       <c r="D4" t="n">
-        <v>532.5898066910565</v>
+        <v>768.6303371471284</v>
       </c>
       <c r="E4" t="n">
-        <v>384.6767131086634</v>
+        <v>620.7172435647353</v>
       </c>
       <c r="F4" t="n">
-        <v>237.7867656107531</v>
+        <v>473.8272960668249</v>
       </c>
       <c r="G4" t="n">
-        <v>69.80030091903166</v>
+        <v>305.8408313751036</v>
       </c>
       <c r="H4" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I4" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800311</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312196</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M4" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q4" t="n">
         <v>1636.446120074497</v>
@@ -4515,25 +4515,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074497</v>
+        <v>1617.802162324682</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074497</v>
+        <v>1617.802162324682</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074497</v>
+        <v>1617.802162324682</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.76163186861</v>
+        <v>1617.802162324682</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.344461831649</v>
+        <v>1328.384992287721</v>
       </c>
       <c r="X4" t="n">
-        <v>864.354910933632</v>
+        <v>1100.395441389704</v>
       </c>
       <c r="Y4" t="n">
-        <v>864.354910933632</v>
+        <v>1100.395441389704</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1380.34282005186</v>
+        <v>983.6388807631554</v>
       </c>
       <c r="C5" t="n">
-        <v>1380.34282005186</v>
+        <v>983.6388807631554</v>
       </c>
       <c r="D5" t="n">
-        <v>1022.07712144511</v>
+        <v>983.6388807631554</v>
       </c>
       <c r="E5" t="n">
-        <v>1022.07712144511</v>
+        <v>597.8506281649111</v>
       </c>
       <c r="F5" t="n">
-        <v>611.0912166555024</v>
+        <v>466.9515368437143</v>
       </c>
       <c r="G5" t="n">
-        <v>421.6795797345444</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H5" t="n">
-        <v>117.6204357321147</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I5" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362813</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816082</v>
+        <v>442.517185281608</v>
       </c>
       <c r="L5" t="n">
         <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923563</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230817</v>
+        <v>1656.671415230818</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.22848474084</v>
+        <v>2055.228484740841</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764999</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723852</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="S5" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400157</v>
       </c>
       <c r="T5" t="n">
-        <v>2437.640120926625</v>
+        <v>2353.593687005981</v>
       </c>
       <c r="U5" t="n">
-        <v>2437.640120926625</v>
+        <v>2100.012626270161</v>
       </c>
       <c r="V5" t="n">
-        <v>2106.577233583054</v>
+        <v>2100.012626270161</v>
       </c>
       <c r="W5" t="n">
-        <v>1753.80857831294</v>
+        <v>1747.243971000047</v>
       </c>
       <c r="X5" t="n">
-        <v>1380.34282005186</v>
+        <v>1373.778212738967</v>
       </c>
       <c r="Y5" t="n">
-        <v>1380.34282005186</v>
+        <v>983.6388807631554</v>
       </c>
     </row>
     <row r="6">
@@ -4622,52 +4622,52 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966385</v>
+        <v>931.3041410966388</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155116</v>
+        <v>756.8511118155118</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542603</v>
+        <v>607.9167021542605</v>
       </c>
       <c r="E6" t="n">
-        <v>448.6792471488048</v>
+        <v>448.679247148805</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756898</v>
+        <v>302.1446891756899</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057899</v>
+        <v>71.67401812057901</v>
       </c>
       <c r="I6" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J6" t="n">
-        <v>238.4273302370161</v>
+        <v>238.4273302370162</v>
       </c>
       <c r="K6" t="n">
-        <v>590.2049751143495</v>
+        <v>614.5430248380218</v>
       </c>
       <c r="L6" t="n">
-        <v>884.9085321458213</v>
+        <v>909.2465818694936</v>
       </c>
       <c r="M6" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N6" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q6" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R6" t="n">
         <v>2562.339328400155</v>
@@ -4679,7 +4679,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047137</v>
+        <v>2004.520742047138</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4688,7 +4688,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.27977688166</v>
+        <v>1307.279776881661</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>716.5983551657494</v>
+        <v>665.1026499885493</v>
       </c>
       <c r="C7" t="n">
-        <v>547.6621722378425</v>
+        <v>496.1664670606424</v>
       </c>
       <c r="D7" t="n">
-        <v>547.6621722378425</v>
+        <v>346.0498276483066</v>
       </c>
       <c r="E7" t="n">
-        <v>399.7490786554494</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F7" t="n">
-        <v>252.859131157539</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="G7" t="n">
-        <v>252.859131157539</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="H7" t="n">
-        <v>104.1202330210452</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="I7" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800314</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312206</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020477</v>
       </c>
       <c r="L7" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4746,31 +4746,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="T7" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="U7" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="V7" t="n">
-        <v>1636.446120074497</v>
+        <v>1584.950414897297</v>
       </c>
       <c r="W7" t="n">
-        <v>1347.028950037537</v>
+        <v>1295.533244860336</v>
       </c>
       <c r="X7" t="n">
-        <v>1119.039399139519</v>
+        <v>1067.543693962319</v>
       </c>
       <c r="Y7" t="n">
-        <v>898.2468199959891</v>
+        <v>846.751114818789</v>
       </c>
     </row>
     <row r="8">
@@ -4780,13 +4780,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1059.365742829027</v>
+        <v>1412.134398099143</v>
       </c>
       <c r="C8" t="n">
-        <v>859.685290191162</v>
+        <v>1043.171881158731</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>684.9061825519805</v>
       </c>
       <c r="E8" t="n">
         <v>473.8970375929177</v>
@@ -4795,22 +4795,22 @@
         <v>466.9515368437143</v>
       </c>
       <c r="G8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="I8" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816081</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872915</v>
+        <v>795.7553530872916</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4822,34 +4822,34 @@
         <v>2055.22848474084</v>
       </c>
       <c r="P8" t="n">
-        <v>2360.886721764997</v>
+        <v>2360.886721764998</v>
       </c>
       <c r="Q8" t="n">
-        <v>2542.25058172385</v>
+        <v>2542.250581723851</v>
       </c>
       <c r="R8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="W8" t="n">
-        <v>2209.570673130041</v>
+        <v>2562.339328400156</v>
       </c>
       <c r="X8" t="n">
-        <v>1836.104914868961</v>
+        <v>2188.873570139076</v>
       </c>
       <c r="Y8" t="n">
-        <v>1445.965582893149</v>
+        <v>1798.734238163264</v>
       </c>
     </row>
     <row r="9">
@@ -4880,31 +4880,31 @@
         <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>423.148951518066</v>
+        <v>614.5430248380219</v>
       </c>
       <c r="L9" t="n">
-        <v>717.8525085495378</v>
+        <v>909.2465818694938</v>
       </c>
       <c r="M9" t="n">
-        <v>1081.114527508758</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1715.293511287796</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>2047.363946463958</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2294.546680296255</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598624</v>
+        <v>770.9577966591559</v>
       </c>
       <c r="C10" t="n">
-        <v>292.9776840319555</v>
+        <v>602.021613731249</v>
       </c>
       <c r="D10" t="n">
-        <v>142.8610446196198</v>
+        <v>451.9049743189132</v>
       </c>
       <c r="E10" t="n">
-        <v>51.2467865680031</v>
+        <v>303.9918807365201</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="H10" t="n">
-        <v>51.2467865680031</v>
+        <v>157.1019332386097</v>
       </c>
       <c r="I10" t="n">
-        <v>51.2467865680031</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312198</v>
+        <v>76.71595955312202</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.219460709659</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4983,31 +4983,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>1636.446120074498</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.34446183165</v>
+        <v>1401.388391530943</v>
       </c>
       <c r="X10" t="n">
-        <v>864.3549109336323</v>
+        <v>1173.398840632926</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901021</v>
+        <v>952.6062614893956</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5038,52 +5038,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5117,13 +5117,13 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273908</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J12" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516145</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>741.8431516380895</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C13" t="n">
-        <v>572.9069687101826</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429802</v>
@@ -5193,7 +5193,7 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797189</v>
@@ -5208,7 +5208,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5217,34 +5217,34 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1762.98966419767</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611859</v>
+        <v>1508.305175991783</v>
       </c>
       <c r="X13" t="n">
-        <v>1144.284195611859</v>
+        <v>1280.315625093766</v>
       </c>
       <c r="Y13" t="n">
-        <v>923.4916164683292</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5272,37 +5272,37 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
         <v>4606.285157492578</v>
@@ -5314,13 +5314,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="L15" t="n">
-        <v>579.1554649516144</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="M15" t="n">
-        <v>1176.533952578166</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N15" t="n">
-        <v>1804.131916132773</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>571.6607764188008</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5460,28 +5460,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1491.508541327549</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1202.091371290588</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>974.1018203925706</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y16" t="n">
-        <v>753.3092412490405</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="17">
@@ -5494,70 +5494,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J18" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>580.8993044876693</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C19" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D19" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E19" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F19" t="n">
-        <v>411.9631215597624</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G19" t="n">
         <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782958</v>
@@ -5700,25 +5700,25 @@
         <v>2446.963083580261</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235165</v>
+        <v>2336.956424518383</v>
       </c>
       <c r="T19" t="n">
-        <v>2044.506784258106</v>
+        <v>2117.354959541324</v>
       </c>
       <c r="U19" t="n">
-        <v>1755.431557602304</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V19" t="n">
-        <v>1500.747069396417</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W19" t="n">
-        <v>1211.329899359456</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X19" t="n">
-        <v>983.3403484614391</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y19" t="n">
-        <v>762.547769317909</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="20">
@@ -5740,7 +5740,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
@@ -5749,19 +5749,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5828,22 +5828,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876693</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597624</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>411.9631215597624</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E22" t="n">
-        <v>411.9631215597624</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F22" t="n">
-        <v>411.9631215597624</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614391</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.547769317909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5986,52 +5986,52 @@
         <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,13 +6223,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,16 +6238,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1098.667160263526</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C28" t="n">
-        <v>929.7309773356194</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D28" t="n">
-        <v>779.6143379232836</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408905</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429802</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T28" t="n">
-        <v>2379.917379832663</v>
+        <v>2395.078540748843</v>
       </c>
       <c r="U28" t="n">
-        <v>2273.199413378161</v>
+        <v>2106.003314093041</v>
       </c>
       <c r="V28" t="n">
-        <v>2018.514925172274</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W28" t="n">
-        <v>1729.097755135313</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X28" t="n">
-        <v>1501.108204237296</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y28" t="n">
-        <v>1280.315625093766</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6451,19 +6451,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.852361107581</v>
@@ -6472,40 +6472,40 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6527,7 +6527,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6536,34 +6536,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803938</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961526</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N30" t="n">
-        <v>1965.532750177311</v>
+        <v>1654.485273605118</v>
       </c>
       <c r="O30" t="n">
-        <v>1965.532750177311</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
-        <v>2389.15589967238</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="32">
@@ -6691,19 +6691,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6718,31 +6718,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>352.5519571452613</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L33" t="n">
-        <v>352.5519571452613</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>949.9304447718132</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>1577.52840832642</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282754</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458823</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>2021.163366826619</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>1732.088140170817</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6949,16 +6949,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7153,7 +7153,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004713</v>
@@ -7171,13 +7171,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7186,16 +7186,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.0655846733346</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C40" t="n">
-        <v>411.1294017454277</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D40" t="n">
-        <v>261.0127623330919</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.129363765926</v>
+        <v>2446.679061850319</v>
       </c>
       <c r="S40" t="n">
-        <v>2263.274529420831</v>
+        <v>2263.824227505223</v>
       </c>
       <c r="T40" t="n">
-        <v>2043.673064443772</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="U40" t="n">
-        <v>1754.597837787969</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V40" t="n">
-        <v>1499.913349582082</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W40" t="n">
-        <v>1210.496179545122</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X40" t="n">
-        <v>982.5066286471044</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y40" t="n">
-        <v>761.7140495035743</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="41">
@@ -7399,22 +7399,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332386</v>
@@ -7429,31 +7429,31 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7484,16 +7484,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>280.8495004245705</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L42" t="n">
         <v>776.1751066403293</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>202.3036411041575</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2049.400878868273</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,16 +7724,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>280.8495004245705</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
         <v>1373.553594266881</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8297,7 +8297,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>168.7434581780641</v>
+        <v>193.3273467878338</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8318,7 +8318,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154984</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>193.3273467878341</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8543,7 +8543,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>249.3877325071649</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>129.4330134067482</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154985</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -23421,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>61.400757869682</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,19 +23472,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>7.482525529412385</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>72.11969353038566</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23904,7 +23904,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>72.11969353038532</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>46.45968844823102</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>72.11969353038563</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24615,7 +24615,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>166.0397529241849</v>
       </c>
       <c r="U28" t="n">
-        <v>180.5336875992868</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>46.45968844823085</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25095,7 +25095,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,10 +25128,10 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>43.26526345294988</v>
       </c>
       <c r="U34" t="n">
-        <v>191.8807364711616</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25557,7 +25557,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>65.54986409393054</v>
+        <v>66.09406519747981</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>71.22040037418631</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26025,7 +26025,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>673215.2723244028</v>
+        <v>673215.2723244029</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>673215.2723244029</v>
+        <v>673215.2723244028</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>673215.2723244028</v>
+        <v>673215.2723244029</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>673215.272324403</v>
+        <v>673215.2723244029</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>673215.2723244028</v>
+        <v>673215.2723244029</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>673215.2723244029</v>
+        <v>673215.272324403</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>759463.6371244626</v>
+        <v>759463.6371244624</v>
       </c>
       <c r="C2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="D2" t="n">
-        <v>759463.6371244625</v>
+        <v>759463.6371244623</v>
       </c>
       <c r="E2" t="n">
+        <v>746610.6047132551</v>
+      </c>
+      <c r="F2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="G2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="H2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
+        <v>746610.6047132552</v>
+      </c>
+      <c r="J2" t="n">
         <v>746610.6047132553</v>
       </c>
-      <c r="G2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="H2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="I2" t="n">
-        <v>746610.6047132555</v>
-      </c>
-      <c r="J2" t="n">
-        <v>746610.6047132552</v>
-      </c>
       <c r="K2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="L2" t="n">
         <v>746610.6047132553</v>
       </c>
       <c r="M2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132554</v>
       </c>
       <c r="N2" t="n">
-        <v>746610.6047132551</v>
+        <v>746610.6047132552</v>
       </c>
       <c r="O2" t="n">
-        <v>746610.6047132553</v>
+        <v>746610.6047132555</v>
       </c>
       <c r="P2" t="n">
-        <v>746610.6047132554</v>
+        <v>746610.6047132552</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.783575919</v>
+        <v>1114751.78357592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245462</v>
+        <v>507485.4416245458</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="C4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618636</v>
       </c>
       <c r="D4" t="n">
-        <v>134318.0002618638</v>
+        <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731934</v>
       </c>
       <c r="F4" t="n">
-        <v>8117.312426731934</v>
+        <v>8117.312426731975</v>
       </c>
       <c r="G4" t="n">
         <v>8117.312426731974</v>
@@ -26444,10 +26444,10 @@
         <v>8117.312426731974</v>
       </c>
       <c r="K4" t="n">
+        <v>8117.312426732012</v>
+      </c>
+      <c r="L4" t="n">
         <v>8117.312426731974</v>
-      </c>
-      <c r="L4" t="n">
-        <v>8117.312426731975</v>
       </c>
       <c r="M4" t="n">
         <v>8117.312426731974</v>
@@ -26456,7 +26456,7 @@
         <v>8117.312426731974</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426732028</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984472</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984475</v>
       </c>
       <c r="D5" t="n">
-        <v>92937.7724398447</v>
+        <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-582543.9191531653</v>
+        <v>-582543.9191531659</v>
       </c>
       <c r="C6" t="n">
-        <v>532207.8644227542</v>
+        <v>532207.8644227536</v>
       </c>
       <c r="D6" t="n">
-        <v>532207.8644227542</v>
+        <v>532207.8644227539</v>
       </c>
       <c r="E6" t="n">
-        <v>129537.941583713</v>
+        <v>129850.5829126345</v>
       </c>
       <c r="F6" t="n">
-        <v>637023.3832082595</v>
+        <v>637336.0245371806</v>
       </c>
       <c r="G6" t="n">
-        <v>637023.3832082595</v>
+        <v>637336.0245371806</v>
       </c>
       <c r="H6" t="n">
-        <v>637023.3832082596</v>
+        <v>637336.0245371808</v>
       </c>
       <c r="I6" t="n">
-        <v>637023.3832082595</v>
+        <v>637336.0245371806</v>
       </c>
       <c r="J6" t="n">
-        <v>469418.2053982767</v>
+        <v>469730.846727198</v>
       </c>
       <c r="K6" t="n">
-        <v>637023.3832082592</v>
+        <v>637336.0245371807</v>
       </c>
       <c r="L6" t="n">
-        <v>637023.3832082592</v>
+        <v>637336.0245371807</v>
       </c>
       <c r="M6" t="n">
-        <v>504416.0894793324</v>
+        <v>504728.730808254</v>
       </c>
       <c r="N6" t="n">
-        <v>637023.3832082591</v>
+        <v>637336.0245371806</v>
       </c>
       <c r="O6" t="n">
-        <v>637023.3832082594</v>
+        <v>637336.0245371808</v>
       </c>
       <c r="P6" t="n">
-        <v>637023.3832082595</v>
+        <v>637336.0245371806</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175396</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175392</v>
+        <v>934.0648921175394</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000392</v>
       </c>
       <c r="D4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.584832100039</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.910608224135</v>
+        <v>433.9106082241345</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,31 +27011,31 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>640.5848321000389</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>532.1234559996096</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>640.5848321000387</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" t="n">
-        <v>532.1234559996099</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>640.5848321000385</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000387</v>
+        <v>640.5848321000389</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996099</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -27393,13 +27393,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>169.9198840756234</v>
       </c>
       <c r="H2" t="n">
-        <v>22.49468230207867</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27554,10 +27554,10 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>128.8835299476106</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,7 +27587,7 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>176.20494218942</v>
       </c>
       <c r="T4" t="n">
         <v>220.7486959972119</v>
@@ -27596,7 +27596,7 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27621,22 +27621,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>277.2859453337266</v>
       </c>
       <c r="G5" t="n">
-        <v>224.0301822212056</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,16 +27666,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987943</v>
       </c>
       <c r="T5" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27779,7 +27779,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I7" t="n">
-        <v>52.4518832153889</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>101.5575724195736</v>
+        <v>50.57682429414508</v>
       </c>
       <c r="S7" t="n">
         <v>194.6624603617375</v>
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>167.5892436595209</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>173.0313165627897</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>65.70991267247044</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28019,10 +28019,10 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>55.73584717546866</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
@@ -28031,7 +28031,7 @@
         <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28070,10 +28070,10 @@
         <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>53.81584707847182</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -28095,7 +28095,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -28377,7 +28377,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>-9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -30519,7 +30519,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -31041,46 +31041,46 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I2" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T2" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U2" t="n">
         <v>0.3004027793744847</v>
@@ -31123,10 +31123,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
@@ -31135,34 +31135,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R3" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31205,7 +31205,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
@@ -31220,10 +31220,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31232,16 +31232,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.755034742181059</v>
+        <v>3.755034742181061</v>
       </c>
       <c r="H5" t="n">
-        <v>38.45624955336179</v>
+        <v>38.4562495533618</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J5" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491901</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857145</v>
       </c>
       <c r="L5" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767382</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342227</v>
       </c>
       <c r="O5" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166597</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q5" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147053</v>
       </c>
       <c r="R5" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235313</v>
       </c>
       <c r="S5" t="n">
-        <v>85.56785418745098</v>
+        <v>85.567854187451</v>
       </c>
       <c r="T5" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,34 +31357,34 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I6" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436497</v>
       </c>
       <c r="J6" t="n">
-        <v>189.8178475575841</v>
+        <v>189.8178475575842</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178438</v>
+        <v>324.428935217844</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M6" t="n">
-        <v>509.0653662040588</v>
+        <v>509.065366204059</v>
       </c>
       <c r="N6" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762074</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P6" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q6" t="n">
         <v>256.4624964168761</v>
@@ -31393,10 +31393,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997904</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000176</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31439,22 +31439,22 @@
         <v>1.684379313654579</v>
       </c>
       <c r="H7" t="n">
-        <v>14.97566335231072</v>
+        <v>14.97566335231073</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J7" t="n">
-        <v>119.0856174753787</v>
+        <v>119.0856174753788</v>
       </c>
       <c r="K7" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L7" t="n">
-        <v>250.4212663227908</v>
+        <v>250.4212663227909</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31463,22 +31463,22 @@
         <v>238.0793597154673</v>
       </c>
       <c r="P7" t="n">
-        <v>203.7180217169137</v>
+        <v>203.7180217169138</v>
       </c>
       <c r="Q7" t="n">
-        <v>141.0437987097484</v>
+        <v>141.0437987097485</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S7" t="n">
-        <v>29.35413767523479</v>
+        <v>29.3541376752348</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069564</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024989</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,34 +31515,34 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979354</v>
+        <v>144.7659768979355</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857143</v>
+        <v>477.6545005857144</v>
       </c>
       <c r="L8" t="n">
-        <v>592.572645076738</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730004</v>
+        <v>659.3512441730006</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342224</v>
+        <v>670.0202366342226</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166595</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190645</v>
+        <v>539.9786897190646</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31551,13 +31551,13 @@
         <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745098</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744847</v>
+        <v>0.3004027793744848</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,34 +31594,34 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.00912071134716</v>
+        <v>2.009120711347161</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436494</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178438</v>
+        <v>324.4289352178439</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177244</v>
+        <v>436.2347404177245</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405675</v>
+        <v>478.0209264405676</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
         <v>256.4624964168761</v>
@@ -31630,10 +31630,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997902</v>
+        <v>37.31853601997903</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000172</v>
+        <v>8.098166376000174</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31679,19 +31679,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335771</v>
+        <v>50.65387972335773</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6942511682319</v>
+        <v>195.694251168232</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849627</v>
+        <v>264.0341136849628</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759588</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069562</v>
+        <v>7.196893431069563</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024985</v>
+        <v>0.09187523529024988</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,40 +31752,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31794,7 +31794,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31843,19 +31843,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558009</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,7 +31867,7 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31910,13 +31910,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31934,7 +31934,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -32077,10 +32077,10 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
@@ -32092,7 +32092,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>198.560797075695</v>
+        <v>687.0167715190033</v>
       </c>
       <c r="P15" t="n">
         <v>561.8765786214699</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32317,7 +32317,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473073</v>
@@ -32329,7 +32329,7 @@
         <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,19 +32554,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,19 +32791,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>622.3466130915036</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>268.5330199802459</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,22 +33502,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>246.2467565146292</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,19 +33739,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,19 +34213,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>173.8200325543355</v>
+        <v>173.8200325543357</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>173.8200325543355</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R2" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091739</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K3" t="n">
         <v>397.6203974676407</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N3" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O3" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P3" t="n">
-        <v>568.1422977634694</v>
+        <v>568.1422977634695</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K4" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L4" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M4" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O4" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225038</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L5" t="n">
-        <v>356.8062301067508</v>
+        <v>356.806230106751</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376318</v>
       </c>
       <c r="O5" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949729</v>
       </c>
       <c r="P5" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q5" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402558</v>
       </c>
       <c r="R5" t="n">
-        <v>20.29166330939904</v>
+        <v>20.29166330939913</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35017,28 +35017,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>355.3309544215489</v>
+        <v>379.9148430313188</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378504</v>
       </c>
       <c r="M6" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820407</v>
       </c>
       <c r="N6" t="n">
-        <v>391.1970995928739</v>
+        <v>391.1970995928741</v>
       </c>
       <c r="O6" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961232</v>
       </c>
       <c r="P6" t="n">
-        <v>249.6795291235323</v>
+        <v>249.6795291235324</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667037</v>
       </c>
       <c r="R6" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870598</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L7" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O7" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P7" t="n">
-        <v>200.9965809818072</v>
+        <v>200.9965809818073</v>
       </c>
       <c r="Q7" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805409</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,28 +35175,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407339</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067508</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457277</v>
+        <v>429.0050109457279</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376315</v>
+        <v>440.6071730376316</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949727</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.745693963795</v>
+        <v>308.7456939637951</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939904</v>
+        <v>20.2916633093991</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35254,28 +35254,28 @@
         <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>379.914843031319</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378502</v>
+        <v>297.6803606378503</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820405</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>640.5848321000387</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
         <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>245.9137357376028</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977092</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870594</v>
+        <v>25.72643735870597</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468033</v>
+        <v>303.6179906468034</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.88175545805403</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113564</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35579,7 +35579,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35725,10 +35725,10 @@
         <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35740,7 +35740,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>55.96455263125056</v>
+        <v>544.4205270745589</v>
       </c>
       <c r="P15" t="n">
         <v>427.9021712071396</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35965,7 +35965,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>35.9785935799765</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.3288951674331</v>
@@ -35977,7 +35977,7 @@
         <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193519</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>35.97859357997653</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>35.9785935799765</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>479.7503686470592</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.5512458942243</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>108.4053175402702</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>35.97859357997653</v>
+        <v>35.97859357997668</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>35.97859357997653</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
